--- a/xlsx/文化研究_intext.xlsx
+++ b/xlsx/文化研究_intext.xlsx
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_文化研究</t>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_文化研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>文學理論</t>
+    <t>文学理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>文化人類學</t>
+    <t>文化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -59,25 +59,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>社會階級</t>
+    <t>社会阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%97%E6%96%87%E5%8C%96</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
@@ -137,49 +137,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>大眾文化</t>
+    <t>大众文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>文化工業</t>
+    <t>文化工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E5%B7%A5%E5%85%B7</t>
   </si>
   <si>
-    <t>生產工具</t>
+    <t>生产工具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%9C%AC</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1</t>
   </si>
   <si>
-    <t>攝影</t>
+    <t>摄影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%B0%9A</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%AE%E5%9E%8B</t>
   </si>
   <si>
-    <t>髮型</t>
+    <t>发型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>文化認同</t>
+    <t>文化认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E6%88%98%E4%BA%89</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%85%92%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>酷兒理論</t>
+    <t>酷儿理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>東方主義</t>
+    <t>东方主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>符號學</t>
+    <t>符号学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%98%AD%C2%B7%E5%B7%B4%E7%89%B9</t>
   </si>
   <si>
-    <t>羅蘭·巴特</t>
+    <t>罗兰·巴特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%AF%9D%E5%AD%A6</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%C2%B7%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
   </si>
   <si>
-    <t>狄奧多·阿多諾</t>
+    <t>狄奥多·阿多诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%9F%AF</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E6%8B%89%E5%B2%A1</t>
   </si>
   <si>
-    <t>雅克·拉岡</t>
+    <t>雅克·拉冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%BE%B7%E9%87%8C%E8%BE%BE</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B8%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>布希亞</t>
+    <t>布希亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%C2%B7%E7%8F%AD%E9%9B%85%E6%98%8E</t>
   </si>
   <si>
-    <t>華特·班雅明</t>
+    <t>华特·班雅明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%C2%B7%E5%B8%83%E8%BF%AA%E5%8E%84</t>
@@ -329,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>伊斯蘭研究</t>
+    <t>伊斯兰研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>亞洲研究</t>
+    <t>亚洲研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%9A%9B%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>亞際文化研究</t>
+    <t>亚际文化研究</t>
   </si>
 </sst>
 </file>

--- a/xlsx/文化研究_intext.xlsx
+++ b/xlsx/文化研究_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社會學</t>
   </si>
   <si>
-    <t>政策_政策_政治學_文化研究</t>
+    <t>体育运动_体育运动_文化_文化研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E7%90%86%E8%AB%96</t>
